--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_B.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_B.xlsx
@@ -1637,7 +1637,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleById("sukutsu_arena_master", 6, true);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_b_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_B.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_B.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1564,85 +1564,19 @@
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>obs_1</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>（観客の声：「……始まるぞ。虚無の舞が」）</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>（観客の声：「……始まるぞ。虚無の舞が」）</t>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_b_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>obs_2</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>（観客の声：「賭けは『3ターン以内に精神崩壊』で」）</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>（観客の声：「賭けは『3ターン以内に精神崩壊』で」）</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>obs_3</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>（観客の声：「いや、この新人は……少しは抗うだろう」）</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>（観客の声：「いや、この新人は……少しは抗うだろう」）</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_b_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="D75" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_B.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_B.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,38 +578,68 @@
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>balgas_1</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>……おい、闘技場の鴉。</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>……おい、闘技場の鴉。</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>balgas_2</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>お前はここまで、よく戦ってきた。だが、次の相手は……今までの敵とは次元が違う。</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>お前はここまで、よく戦ってきた。だが、次の相手は……今までの敵とは次元が違う。</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>balgas_3</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>『虚無の処刑人ヌル』。</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>『虚無の処刑人ヌル』。</t>
         </is>
       </c>
     </row>
@@ -621,17 +651,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>balgas_1</t>
+          <t>balgas_4</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>……おい、闘技場の鴉。</t>
+          <t>あいつは、このアリーナの『概念』そのものだ。感情も、意志も、魂すらも持たねえ。</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>……おい、闘技場の鴉。</t>
+          <t>あいつは、このアリーナの『概念』そのものだ。感情も、意志も、魂すらも持たねえ。</t>
         </is>
       </c>
     </row>
@@ -643,39 +673,39 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>balgas_2</t>
+          <t>balgas_5</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>お前はここまで、よく戦ってきた。だが、次の相手は……今までの敵とは次元が違う。</t>
+          <t>ただひたすらに、『存在を無に還す』ことだけを目的に動く、生ける虚無だ。</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>お前はここまで、よく戦ってきた。だが、次の相手は……今までの敵とは次元が違う。</t>
+          <t>ただひたすらに、『存在を無に還す』ことだけを目的に動く、生ける虚無だ。</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="F18" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>balgas_3</t>
+          <t>narr_4</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>『虚無の処刑人ヌル』。</t>
+          <t>（彼は深く息を吐く。）</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>『虚無の処刑人ヌル』。</t>
+          <t>（彼は深く息を吐く。）</t>
         </is>
       </c>
     </row>
@@ -687,17 +717,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>balgas_4</t>
+          <t>balgas_6</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>あいつは、このアリーナの『概念』そのものだ。感情も、意志も、魂すらも持たねえ。</t>
+          <t>……かつての英雄たち、カインを含めた俺の仲間たちも、あいつに飲み込まれて消えた。</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>あいつは、このアリーナの『概念』そのものだ。感情も、意志も、魂すらも持たねえ。</t>
+          <t>……かつての英雄たち、カインを含めた俺の仲間たちも、あいつに飲み込まれて消えた。</t>
         </is>
       </c>
     </row>
@@ -709,171 +739,141 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>balgas_5</t>
+          <t>balgas_7</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>ただひたすらに、『存在を無に還す』ことだけを目的に動く、生ける虚無だ。</t>
+          <t>俺たちが持っていた『意志』も、『哲学』も、全てあいつの『無』の前では意味を成さなかった。</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>ただひたすらに、『存在を無に還す』ことだけを目的に動く、生ける虚無だ。</t>
+          <t>俺たちが持っていた『意志』も、『哲学』も、全てあいつの『無』の前では意味を成さなかった。</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>react1_null</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>c1_null</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>（彼は深く息を吐く。）</t>
+          <t>どうすれば倒せる？</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>（彼は深く息を吐く。）</t>
+          <t>どうすれば倒せる？</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="F22" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>react1_fear</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>c1_fear</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>……お前も恐れているのか</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>……お前も恐れているのか</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>react1_silent</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>c1_silent</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>react1_null</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>balgas_6</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>……かつての英雄たち、カインを含めた俺の仲間たちも、あいつに飲み込まれて消えた。</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>……かつての英雄たち、カインを含めた俺の仲間たちも、あいつに飲み込まれて消えた。</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>balgas_7</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>俺たちが持っていた『意志』も、『哲学』も、全てあいつの『無』の前では意味を成さなかった。</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>俺たちが持っていた『意志』も、『哲学』も、全てあいつの『無』の前では意味を成さなかった。</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>react1_null</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>c1_null</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>どうすれば倒せる？</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>どうすれば倒せる？</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>react1_fear</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>c1_fear</t>
+          <t>balgas_r1</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>……お前も恐れているのか</t>
+          <t>分からねえ。だが、お前なら……。お前が積み上げてきた『絆』が、鍵になるかもしれねえ。</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>……お前も恐れているのか</t>
+          <t>分からねえ。だが、お前なら……。お前が積み上げてきた『絆』が、鍵になるかもしれねえ。</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>react1_silent</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>c1_silent</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
+          <t>scene2_lily_advice</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>react1_null</t>
+          <t>react1_fear</t>
         </is>
       </c>
     </row>
@@ -885,17 +885,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>balgas_r1</t>
+          <t>balgas_r2</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>分からねえ。だが、お前なら……。お前が積み上げてきた『絆』が、鍵になるかもしれねえ。</t>
+          <t>……ああ。恐れてる。あいつは、俺が今まで信じてきた全てを否定する存在だ。</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>分からねえ。だが、お前なら……。お前が積み上げてきた『絆』が、鍵になるかもしれねえ。</t>
+          <t>……ああ。恐れてる。あいつは、俺が今まで信じてきた全てを否定する存在だ。</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>react1_fear</t>
+          <t>react1_silent</t>
         </is>
       </c>
     </row>
@@ -921,17 +921,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>balgas_r2</t>
+          <t>balgas_r3</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>……ああ。恐れてる。あいつは、俺が今まで信じてきた全てを否定する存在だ。</t>
+          <t>……まあ、黙って聞いててくれ。リリィからも話がある。</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>……ああ。恐れてる。あいつは、俺が今まで信じてきた全てを否定する存在だ。</t>
+          <t>……まあ、黙って聞いててくれ。リリィからも話がある。</t>
         </is>
       </c>
     </row>
@@ -945,113 +945,173 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>react1_silent</t>
+          <t>scene2_lily_advice</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>……まあ、黙って聞いててくれ。リリィからも話がある。</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>……まあ、黙って聞いててくれ。リリィからも話がある。</t>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Seductive_Danger");             var data = SoundManager.current.GetData("BGM/Lily_Seductive_Danger");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Seductive_Danger");             }</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>scene2_lily_advice</t>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>（リリィが近づいてくる。その目には、珍しく真剣な光が宿っている。）</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>（リリィが近づいてくる。その目には、珍しく真剣な光が宿っている。）</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>scene2_lily_advice</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>lily_1</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>……お客様。ヌルは、このアリーナが生み出した『究極の絶望』の結晶です。</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>……お客様。ヌルは、このアリーナが生み出した『究極の絶望』の結晶です。</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Seductive_Danger");             var data = SoundManager.current.GetData("BGM/Lily_Seductive_Danger");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Seductive_Danger");             }</t>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>lily_2</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>あなたがどれほど強くなっても、どれほど技術を磨いても、『虚無』の前では全てが等しく無意味。</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>あなたがどれほど強くなっても、どれほど技術を磨いても、『虚無』の前では全てが等しく無意味。</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>（彼女は、あなたの手を取る。）</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>（彼女は、あなたの手を取る。）</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>lily_3</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>でも……あなたには、私たちがいます。</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>でも……あなたには、私たちがいます。</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>バルガスさんの哲学、あなたが救った魂たち、そして……私の真名を知るあなた。</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>バルガスさんの哲学、あなたが救った魂たち、そして……私の真名を知るあなた。</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>narr_5</t>
+          <t>lily_5</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>（リリィが近づいてくる。その目には、珍しく真剣な光が宿っている。）</t>
+          <t>虚無に抗う唯一の方法は、『意味』を信じ続けることです。</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>（リリィが近づいてくる。その目には、珍しく真剣な光が宿っている。）</t>
+          <t>虚無に抗う唯一の方法は、『意味』を信じ続けることです。</t>
         </is>
       </c>
     </row>
@@ -1063,281 +1123,221 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>lily_1</t>
+          <t>lily_6</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>……お客様。ヌルは、このアリーナが生み出した『究極の絶望』の結晶です。</t>
+          <t>あなたが今まで積み上げてきた全ての選択、全ての戦い……それが、あなたを虚無から守る盾になります。</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>……お客様。ヌルは、このアリーナが生み出した『究極の絶望』の結晶です。</t>
+          <t>あなたが今まで積み上げてきた全ての選択、全ての戦い……それが、あなたを虚無から守る盾になります。</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>lily_2</t>
+          <t>narr_7</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>あなたがどれほど強くなっても、どれほど技術を磨いても、『虚無』の前では全てが等しく無意味。</t>
+          <t>（リリィは、あなたの額に軽く口づけをする。）</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>あなたがどれほど強くなっても、どれほど技術を磨いても、『虚無』の前では全てが等しく無意味。</t>
+          <t>（リリィは、あなたの額に軽く口づけをする。）</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>lily_7</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>（彼女は、あなたの手を取る。）</t>
+          <t>……行ってらっしゃい。そして、必ず戻ってきてください。</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>（彼女は、あなたの手を取る。）</t>
+          <t>……行ってらっしゃい。そして、必ず戻ってきてください。</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>react2_survive</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>lily_3</t>
+          <t>c2_survive</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>でも……あなたには、私たちがいます。</t>
+          <t>……生き残る。必ず</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>でも……あなたには、私たちがいます。</t>
+          <t>……生き残る。必ず</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>react2_meaning</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>c2_meaning</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>バルガスさんの哲学、あなたが救った魂たち、そして……私の真名を知るあなた。</t>
+          <t>意味を、信じる</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>バルガスさんの哲学、あなたが救った魂たち、そして……私の真名を知るあなた。</t>
+          <t>意味を、信じる</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>react2_nod</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>lily_5</t>
+          <t>c2_nod</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>虚無に抗う唯一の方法は、『意味』を信じ続けることです。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>虚無に抗う唯一の方法は、『意味』を信じ続けることです。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>lily_6</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>あなたが今まで積み上げてきた全ての選択、全ての戦い……それが、あなたを虚無から守る盾になります。</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>あなたが今まで積み上げてきた全ての選択、全ての戦い……それが、あなたを虚無から守る盾になります。</t>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>react2_survive</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="F49" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>narr_7</t>
+          <t>lily_r4</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>（リリィは、あなたの額に軽く口づけをする。）</t>
+          <t>ええ。その言葉を信じていますよ。</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>（リリィは、あなたの額に軽く口づけをする。）</t>
+          <t>ええ。その言葉を信じていますよ。</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>battle_start</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>react2_meaning</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>……行ってらっしゃい。そして、必ず戻ってきてください。</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>……行ってらっしゃい。そして、必ず戻ってきてください。</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>react2_survive</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>c2_survive</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>……生き残る。必ず</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>……生き残る。必ず</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>react2_meaning</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>c2_meaning</t>
+          <t>lily_r5</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>意味を、信じる</t>
+          <t>……ええ。それがあなたの、最強の武器です。</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>意味を、信じる</t>
+          <t>……ええ。それがあなたの、最強の武器です。</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>react2_nod</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>c2_nod</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>react2_survive</t>
+          <t>react2_nod</t>
         </is>
       </c>
     </row>
@@ -1349,17 +1349,17 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>lily_r4</t>
+          <t>lily_r6</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>ええ。その言葉を信じていますよ。</t>
+          <t>……無口ですが、その目は答えを語っていますね。</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>ええ。その言葉を信じていますよ。</t>
+          <t>……無口ですが、その目は答えを語っていますね。</t>
         </is>
       </c>
     </row>
@@ -1373,210 +1373,138 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>react2_meaning</t>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>lily_r5</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>……ええ。それがあなたの、最強の武器です。</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>……ええ。それがあなたの、最強の武器です。</t>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Null_Assassin");             var data = SoundManager.current.GetData("BGM/Battle_Null_Assassin");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Null_Assassin");             }</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>（闘技場の門を潜ると、そこは無音の世界だった。）</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>（闘技場の門を潜ると、そこは無音の世界だった。）</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>react2_nod</t>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>（観客の声も、風の音も、自分の心臓の鼓動さえも、全てが消え去っている。）</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>（観客の声も、風の音も、自分の心臓の鼓動さえも、全てが消え去っている。）</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>lily_r6</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>……無口ですが、その目は答えを語っていますね。</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>……無口ですが、その目は答えを語っていますね。</t>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>（中央に立つのは、輪郭すら曖昧な、黒い霧のような人型の影。）</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>（中央に立つのは、輪郭すら曖昧な、黒い霧のような人型の影。）</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>（それは、こちらを見ているのか、見ていないのかすら分からない。ただ、その存在が放つ『虚無』の圧力が、魂を押し潰そうとしている。）</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>（それは、こちらを見ているのか、見ていないのかすら分からない。ただ、その存在が放つ『虚無』の圧力が、魂を押し潰そうとしている。）</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="D64" t="inlineStr">
         <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Null_Assassin");             var data = SoundManager.current.GetData("BGM/Battle_Null_Assassin");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Null_Assassin");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>narr_8</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>（闘技場の門を潜ると、そこは無音の世界だった。）</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>（闘技場の門を潜ると、そこは無音の世界だった。）</t>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_b_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>（観客の声も、風の音も、自分の心臓の鼓動さえも、全てが消え去っている。）</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>（観客の声も、風の音も、自分の心臓の鼓動さえも、全てが消え去っている。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>narr_10</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>（中央に立つのは、輪郭すら曖昧な、黒い霧のような人型の影。）</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>（中央に立つのは、輪郭すら曖昧な、黒い霧のような人型の影。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>narr_11</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>（それは、こちらを見ているのか、見ていないのかすら分からない。ただ、その存在が放つ『虚無』の圧力が、魂を押し潰そうとしている。）</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>（それは、こちらを見ているのか、見ていないのかすら分からない。ただ、その存在が放つ『虚無』の圧力が、魂を押し潰そうとしている。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_b_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="D72" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_B.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_B.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,194 +488,164 @@
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
+          <t>fadeOut</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_battle_normal".LoadSprite();</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>fadeIn</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="F8" t="inlineStr">
+    <row r="11">
+      <c r="F11" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>（ロビーの空気が異様に重い。）</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>（ロビーの空気が異様に重い。）</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="F9" t="inlineStr">
+    <row r="12">
+      <c r="F12" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>（バルガスは珍しく、酒瓶を手にせず、険しい表情で闘技場の門を見つめている。）</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>（バルガスは珍しく、酒瓶を手にせず、険しい表情で闘技場の門を見つめている。）</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="F10" t="inlineStr">
+    <row r="13">
+      <c r="F13" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>（リリィも、いつもの事務的な仮面の下に、微かな緊張を滲ませていた。）</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>（リリィも、いつもの事務的な仮面の下に、微かな緊張を滲ませていた。）</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
+    <row r="14">
+      <c r="B14" t="inlineStr">
         <is>
           <t>scene1_warning</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>scene1_warning</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="D13" t="inlineStr">
+    <row r="16">
+      <c r="D16" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="D14" t="inlineStr">
+    <row r="17">
+      <c r="D17" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="D15" t="inlineStr">
+    <row r="18">
+      <c r="D18" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>balgas_1</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>……おい、闘技場の鴉。</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>……おい、闘技場の鴉。</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>balgas_2</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>お前はここまで、よく戦ってきた。だが、次の相手は……今までの敵とは次元が違う。</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>お前はここまで、よく戦ってきた。だが、次の相手は……今までの敵とは次元が違う。</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>balgas_3</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>『虚無の処刑人ヌル』。</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>『虚無の処刑人ヌル』。</t>
         </is>
       </c>
     </row>
@@ -687,17 +657,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>balgas_4</t>
+          <t>balgas_1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>あいつは、このアリーナの『概念』そのものだ。感情も、意志も、魂すらも持たねえ。</t>
+          <t>……おい、闘技場の鴉。</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>あいつは、このアリーナの『概念』そのものだ。感情も、意志も、魂すらも持たねえ。</t>
+          <t>……おい、闘技場の鴉。</t>
         </is>
       </c>
     </row>
@@ -709,39 +679,39 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>balgas_5</t>
+          <t>balgas_2</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>ただひたすらに、『存在を無に還す』ことだけを目的に動く、生ける虚無だ。</t>
+          <t>お前はここまで、よく戦ってきた。だが、次の相手は……今までの敵とは次元が違う。</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>ただひたすらに、『存在を無に還す』ことだけを目的に動く、生ける虚無だ。</t>
+          <t>お前はここまで、よく戦ってきた。だが、次の相手は……今までの敵とは次元が違う。</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="F21" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>balgas_3</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>（彼は深く息を吐く。）</t>
+          <t>『虚無の処刑人ヌル』。</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>（彼は深く息を吐く。）</t>
+          <t>『虚無の処刑人ヌル』。</t>
         </is>
       </c>
     </row>
@@ -753,17 +723,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>balgas_6</t>
+          <t>balgas_4</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>……かつての英雄たち、カインを含めた俺の仲間たちも、あいつに飲み込まれて消えた。</t>
+          <t>あいつは、グランドマスター『アスタロト』の『人形』だ。感情も、意志も、魂すらも持たねえ。</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>……かつての英雄たち、カインを含めた俺の仲間たちも、あいつに飲み込まれて消えた。</t>
+          <t>あいつは、グランドマスター『アスタロト』の『人形』だ。感情も、意志も、魂すらも持たねえ。</t>
         </is>
       </c>
     </row>
@@ -775,141 +745,171 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>balgas_5</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ただひたすらに、『存在を無に還す』ことだけを目的に動く、生ける屍だ。</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ただひたすらに、『存在を無に還す』ことだけを目的に動く、生ける屍だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>narr_4</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>（彼は深く息を吐く。）</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>（彼は深く息を吐く。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>balgas_6</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>……かつての英雄たち、カインを含めた俺の仲間たちも、あいつに飲み込まれて消えた。</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>……かつての英雄たち、カインを含めた俺の仲間たちも、あいつに飲み込まれて消えた。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>balgas_7</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>俺たちが持っていた『意志』も、『哲学』も、全てあいつの『無』の前では意味を成さなかった。</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>俺たちが持っていた『意志』も、『哲学』も、全てあいつの『無』の前では意味を成さなかった。</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>俺たちが持っていた『意志』も、『信念』も、全てあいつの『無』の前では意味を成さなかった。</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>俺たちが持っていた『意志』も、『信念』も、全てあいつの『無』の前では意味を成さなかった。</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
         <is>
           <t>react1_null</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>c1_null</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>どうすれば倒せる？</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>どうすれば倒せる？</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
+    <row r="28">
+      <c r="B28" t="inlineStr">
         <is>
           <t>react1_fear</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>c1_fear</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>……お前も恐れているのか</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>……お前も恐れているのか</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>react1_silent</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>c1_silent</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>react1_null</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>分からねえ。だが、お前なら……。お前が積み上げてきた『絆』が、鍵になるかもしれねえ。</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>分からねえ。だが、お前なら……。お前が積み上げてきた『絆』が、鍵になるかもしれねえ。</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>scene2_lily_advice</t>
+          <t>react1_silent</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>c1_silent</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>react1_fear</t>
+          <t>react1_null</t>
         </is>
       </c>
     </row>
@@ -921,17 +921,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>balgas_r2</t>
+          <t>balgas_r1</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>……ああ。恐れてる。あいつは、俺が今まで信じてきた全てを否定する存在だ。</t>
+          <t>分からねえが。</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>……ああ。恐れてる。あいつは、俺が今まで信じてきた全てを否定する存在だ。</t>
+          <t>分からねえが。</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>react1_silent</t>
+          <t>react1_fear</t>
         </is>
       </c>
     </row>
@@ -957,17 +957,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>balgas_r3</t>
+          <t>balgas_r2</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>……まあ、黙って聞いててくれ。リリィからも話がある。</t>
+          <t>……ああ。恐れてる。あいつは、俺が今まで信じてきた全てを否定する存在だ。</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>……まあ、黙って聞いててくれ。リリィからも話がある。</t>
+          <t>……ああ。恐れてる。あいつは、俺が今まで信じてきた全てを否定する存在だ。</t>
         </is>
       </c>
     </row>
@@ -981,121 +981,91 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>react1_silent</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>……まあ、黙って聞いててくれ。リリィからも話がある。</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>……まあ、黙って聞いててくれ。リリィからも話がある。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
           <t>scene2_lily_advice</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Seductive_Danger");             var data = SoundManager.current.GetData("BGM/Lily_Seductive_Danger");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Seductive_Danger");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
     <row r="39">
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>scene2_lily_advice</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="D40" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Seductive_Danger");             var data = SoundManager.current.GetData("BGM/Lily_Seductive_Danger");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Seductive_Danger");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>narr_5</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>（リリィが近づいてくる。その目には、珍しく真剣な光が宿っている。）</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>（リリィが近づいてくる。その目には、珍しく真剣な光が宿っている。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>lily_1</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>……お客様。ヌルは、このアリーナが生み出した『究極の絶望』の結晶です。</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>……お客様。ヌルは、このアリーナが生み出した『究極の絶望』の結晶です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>あなたがどれほど強くなっても、どれほど技術を磨いても、『虚無』の前では全てが等しく無意味。</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>あなたがどれほど強くなっても、どれほど技術を磨いても、『虚無』の前では全てが等しく無意味。</t>
         </is>
       </c>
     </row>
@@ -1107,17 +1077,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>narr_5</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>（彼女は、あなたの手を取る。）</t>
+          <t>（リリィが近づいてくる。その目には、珍しく真剣な光が宿っている。）</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>（彼女は、あなたの手を取る。）</t>
+          <t>（リリィが近づいてくる。その目には、珍しく真剣な光が宿っている。）</t>
         </is>
       </c>
     </row>
@@ -1129,17 +1099,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>lily_3</t>
+          <t>lily_1</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>でも……あなたには、私たちがいます。</t>
+          <t>……お客様。ヌルは、このアリーナが生み出した『究極の絶望』の結晶です。</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>でも……あなたには、私たちがいます。</t>
+          <t>……お客様。ヌルは、このアリーナが生み出した『究極の絶望』の結晶です。</t>
         </is>
       </c>
     </row>
@@ -1151,39 +1121,39 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>lily_2</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>バルガスさんの哲学、あなたが救った魂たち、そして……私の真名を知るあなた。</t>
+          <t>あなたがどれほど強くなっても、どれほど技術を磨いても、『虚無』の前では全てが等しく無意味。</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>バルガスさんの哲学、あなたが救った魂たち、そして……私の真名を知るあなた。</t>
+          <t>あなたがどれほど強くなっても、どれほど技術を磨いても、『虚無』の前では全てが等しく無意味。</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>lily_5</t>
+          <t>narr_6</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>虚無に抗う唯一の方法は、『意味』を信じ続けることです。</t>
+          <t>（彼女は、あなたの手を取る。）</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>虚無に抗う唯一の方法は、『意味』を信じ続けることです。</t>
+          <t>（彼女は、あなたの手を取る。）</t>
         </is>
       </c>
     </row>
@@ -1195,39 +1165,39 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>lily_6</t>
+          <t>lily_3</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>あなたが今まで積み上げてきた全ての選択、全ての戦い……それが、あなたを虚無から守る盾になります。</t>
+          <t>でも……あなたには、私たちがいます。</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>あなたが今まで積み上げてきた全ての選択、全ての戦い……それが、あなたを虚無から守る盾になります。</t>
+          <t>でも……あなたには、私たちがいます。</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="F49" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>narr_7</t>
+          <t>lily_4</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>（リリィは、あなたの額に軽く口づけをする。）</t>
+          <t>バルガスさんの技、あなたが救った魂たち、そして……私の真名を知るあなた。</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>（リリィは、あなたの額に軽く口づけをする。）</t>
+          <t>バルガスさんの技、あなたが救った魂たち、そして……私の真名を知るあなた。</t>
         </is>
       </c>
     </row>
@@ -1239,141 +1209,171 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
+          <t>lily_5</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>虚無に抗う唯一の方法は、『自身』を信じ続けることです。</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>虚無に抗う唯一の方法は、『自身』を信じ続けることです。</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>lily_6</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>あなたが今まで積み上げてきた全ての選択、全ての戦い……それが、あなたを虚無から守る盾になります。</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>あなたが今まで積み上げてきた全ての選択、全ての戦い……それが、あなたを虚無から守る盾になります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>（リリィは、あなたの額に軽く口づけをする。）</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>（リリィは、あなたの額に軽く口づけをする。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>lily_7</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>……行ってらっしゃい。そして、必ず戻ってきてください。</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>……行ってらっしゃい。そして、必ず戻ってきてください。</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
+    <row r="54">
+      <c r="B54" t="inlineStr">
         <is>
           <t>react2_survive</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>c2_survive</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>……生き残る。必ず</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>……生き残る。必ず</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="B52" t="inlineStr">
+    <row r="55">
+      <c r="B55" t="inlineStr">
         <is>
           <t>react2_meaning</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>c2_meaning</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>意味を、信じる</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>意味を、信じる</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>react2_nod</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>c2_nod</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>react2_survive</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>lily_r4</t>
-        </is>
-      </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>ええ。その言葉を信じていますよ。</t>
+          <t>自身を信じる</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>ええ。その言葉を信じていますよ。</t>
+          <t>自身を信じる</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>battle_start</t>
+          <t>react2_nod</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>c2_nod</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>react2_meaning</t>
+          <t>react2_survive</t>
         </is>
       </c>
     </row>
@@ -1385,17 +1385,17 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>lily_r5</t>
+          <t>lily_r4</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>……ええ。それがあなたの、最強の武器です。</t>
+          <t>ええ。その言葉を信じていますよ。</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>……ええ。それがあなたの、最強の武器です。</t>
+          <t>ええ。その言葉を信じていますよ。</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>react2_nod</t>
+          <t>react2_meaning</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1421,17 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>lily_r6</t>
+          <t>lily_r5</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>……無口ですが、その目は答えを語っていますね。</t>
+          <t>……ええ。それがあなたの武器です。</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>……無口ですが、その目は答えを語っていますね。</t>
+          <t>……ええ。それがあなたの武器です。</t>
         </is>
       </c>
     </row>
@@ -1445,70 +1445,55 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>react2_nod</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>lily_r6</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>……無口ですが、その目は答えを語っていますね。</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>……無口ですが、その目は答えを語っていますね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
           <t>battle_start</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Null_Assassin");             var data = SoundManager.current.GetData("BGM/Battle_Null_Assassin");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Null_Assassin");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>narr_8</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>（闘技場の門を潜ると、そこは無音の世界だった。）</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>（闘技場の門を潜ると、そこは無音の世界だった。）</t>
-        </is>
-      </c>
-    </row>
     <row r="66">
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>（観客の声も、風の音も、自分の心臓の鼓動さえも、全てが消え去っている。）</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>（観客の声も、風の音も、自分の心臓の鼓動さえも、全てが消え去っている。）</t>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="D67" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Null_Assassin");             var data = SoundManager.current.GetData("BGM/Battle_Null_Assassin");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Null_Assassin");             }</t>
         </is>
       </c>
     </row>
@@ -1520,17 +1505,17 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>narr_10</t>
+          <t>narr_8</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>（中央に立つのは、輪郭すら曖昧な、黒い霧のような人型の影。）</t>
+          <t>（闘技場の門を潜ると、そこは無音の世界だった。）</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>（中央に立つのは、輪郭すら曖昧な、黒い霧のような人型の影。）</t>
+          <t>（闘技場の門を潜ると、そこは無音の世界だった。）</t>
         </is>
       </c>
     </row>
@@ -1542,17 +1527,17 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>narr_11</t>
+          <t>narr_9</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>（それは、こちらを見ているのか、見ていないのかすら分からない。ただ、その存在が放つ『虚無』の圧力が、魂を押し潰そうとしている。）</t>
+          <t>（観客の声も、風の音も、自分の心臓の鼓動さえも、全てが消え去っている。）</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>（それは、こちらを見ているのか、見ていないのかすら分からない。ただ、その存在が放つ『虚無』の圧力が、魂を押し潰そうとしている。）</t>
+          <t>（観客の声も、風の音も、自分の心臓の鼓動さえも、全てが消え去っている。）</t>
         </is>
       </c>
     </row>
@@ -1564,19 +1549,70 @@
       </c>
     </row>
     <row r="71">
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>（中央に立つのは、輪郭すら曖昧な、黒い霧のような人型の影。）</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>（中央に立つのは、輪郭すら曖昧な、黒い霧のような人型の影。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>（それは、こちらを見ているのか、見ていないのかすら分からない。ただ、その存在が放つ『虚無』の圧力が、魂を押し潰そうとしている。）</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>（それは、こちらを見ているのか、見ていないのかすら分からない。ただ、その存在が放つ『虚無』の圧力が、魂を押し潰そうとしている。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_b_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="D72" t="inlineStr">
+    <row r="75">
+      <c r="D75" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_B.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_B.xlsx
@@ -926,12 +926,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>分からねえが。</t>
+          <t>分からねえ。</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>分からねえが。</t>
+          <t>分からねえ。</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_B.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_B.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -486,114 +491,114 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>fadeOut</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_battle_normal".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>（ロビーの空気が異様に重い。）</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>（ロビーの空気が異様に重い。）</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>（バルガスは珍しく、酒瓶を手にせず、険しい表情で闘技場の門を見つめている。）</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>（バルガスは珍しく、酒瓶を手にせず、険しい表情で闘技場の門を見つめている。）</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>（リリィも、いつもの事務的な仮面の下に、微かな緊張を滲ませていた。）</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>（リリィも、いつもの事務的な仮面の下に、微かな緊張を滲ませていた。）</t>
         </is>
@@ -614,212 +619,212 @@
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>balgas_1</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>……おい、闘技場の鴉。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>……おい、闘技場の鴉。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>balgas_2</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>お前はここまで、よく戦ってきた。だが、次の相手は……今までの敵とは次元が違う。</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>お前はここまで、よく戦ってきた。だが、次の相手は……今までの敵とは次元が違う。</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>balgas_3</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>『虚無の処刑人ヌル』。</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>『虚無の処刑人ヌル』。</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>balgas_4</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>あいつは、グランドマスター『アスタロト』の『人形』だ。感情も、意志も、魂すらも持たねえ。</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>あいつは、グランドマスター『アスタロト』の『人形』だ。感情も、意志も、魂すらも持たねえ。</t>
+          <t>あいつは、グランドマスター『アスタロト』の直属の『人形』だ。感情も、意志も、魂すらも持たねえ。</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>あいつは、グランドマスター『アスタロト』の直属の『人形』だ。感情も、意志も、魂すらも持たねえ。</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>balgas_5</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>ただひたすらに、『存在を無に還す』ことだけを目的に動く、生ける屍だ。</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>ただひたすらに、『存在を無に還す』ことだけを目的に動く、生ける屍だ。</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>narr_4</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>（彼は深く息を吐く。）</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>（彼は深く息を吐く。）</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>balgas_6</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>……かつての英雄たち、カインを含めた俺の仲間たちも、あいつに飲み込まれて消えた。</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>……かつての英雄たち、カインを含めた俺の仲間たちも、あいつに飲み込まれて消えた。</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>balgas_7</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>俺たちが持っていた『意志』も、『信念』も、全てあいつの『無』の前では意味を成さなかった。</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>俺たちが持っていた『意志』も、『信念』も、全てあいつの『無』の前では意味を成さなかった。</t>
         </is>
@@ -831,22 +836,22 @@
           <t>react1_null</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>c1_null</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>どうすれば倒せる？</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>どうすれば倒せる？</t>
         </is>
@@ -858,22 +863,22 @@
           <t>react1_fear</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>c1_fear</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>……お前も恐れているのか</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>……お前も恐れているのか</t>
         </is>
@@ -885,22 +890,22 @@
           <t>react1_silent</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>c1_silent</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>（無言で聞く）</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>（無言で聞く）</t>
         </is>
@@ -914,22 +919,22 @@
       </c>
     </row>
     <row r="31">
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>balgas_r1</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>分からねえ。</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>分からねえ。</t>
         </is>
@@ -950,22 +955,22 @@
       </c>
     </row>
     <row r="34">
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>balgas_r2</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>……ああ。恐れてる。あいつは、俺が今まで信じてきた全てを否定する存在だ。</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>……ああ。恐れてる。あいつは、俺が今まで信じてきた全てを否定する存在だ。</t>
         </is>
@@ -986,22 +991,22 @@
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>balgas_r3</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>……まあ、黙って聞いててくれ。リリィからも話がある。</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>……まあ、黙って聞いててくれ。リリィからも話がある。</t>
         </is>
@@ -1022,597 +1027,563 @@
       </c>
     </row>
     <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Seductive_Danger");             var data = SoundManager.current.GetData("BGM/Lily_Seductive_Danger");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Seductive_Danger");             }</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>（リリィが近づいてくる。その目には、珍しく真剣な光が宿っている。）</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>（リリィが近づいてくる。その目には、珍しく真剣な光が宿っている。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="G44" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-    </row>
-    <row r="43">
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="F44" t="inlineStr">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>lily_1</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>……お客様。ヌルは、このアリーナが生み出した『究極の絶望』の結晶です。</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>……お客様。ヌルは、このアリーナが生み出した『究極の絶望』の結晶です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>lily_2</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>あなたがどれほど強くなっても、どれほど技術を磨いても、『虚無』の前では全てが等しく無意味となるかもしれません。</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>あなたがどれほど強くなっても、どれほど技術を磨いても、『虚無』の前では全てが等しく無意味となるかもしれません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>lily_3</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>それでも、あなたには、私たちがいます。</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>それでも、あなたには、私たちがいます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>バルガスさんの技、あなたが救った魂たち......</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>バルガスさんの技、あなたが救った魂たち......</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>lily_5</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>虚無に抗う唯一の方法は、『自身』を信じ続けることです。</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>虚無に抗う唯一の方法は、『自身』を信じ続けることです。</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>lily_6</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>あなたが今まで積み上げてきた全ての選択、全ての戦い……それが、あなたを虚無から守る盾になります。</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>あなたが今まで積み上げてきた全ての選択、全ての戦い……それが、あなたを虚無から守る盾になります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="G50" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>narr_5</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>（リリィが近づいてくる。その目には、珍しく真剣な光が宿っている。）</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>（リリィが近づいてくる。その目には、珍しく真剣な光が宿っている。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="F45" t="inlineStr">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>（リリィは、あなたの額に軽く口づけをする。）</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>（リリィは、あなたの額に軽く口づけをする。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="G51" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>lily_1</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>……お客様。ヌルは、このアリーナが生み出した『究極の絶望』の結晶です。</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>……お客様。ヌルは、このアリーナが生み出した『究極の絶望』の結晶です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>あなたがどれほど強くなっても、どれほど技術を磨いても、『虚無』の前では全てが等しく無意味。</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>あなたがどれほど強くなっても、どれほど技術を磨いても、『虚無』の前では全てが等しく無意味。</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>narr_6</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>（彼女は、あなたの手を取る。）</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>（彼女は、あなたの手を取る。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>でも……あなたには、私たちがいます。</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>でも……あなたには、私たちがいます。</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>lily_4</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>バルガスさんの技、あなたが救った魂たち、そして……私の真名を知るあなた。</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>バルガスさんの技、あなたが救った魂たち、そして……私の真名を知るあなた。</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>lily_5</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>虚無に抗う唯一の方法は、『自身』を信じ続けることです。</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>虚無に抗う唯一の方法は、『自身』を信じ続けることです。</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>lily_6</t>
-        </is>
-      </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>あなたが今まで積み上げてきた全ての選択、全ての戦い……それが、あなたを虚無から守る盾になります。</t>
+          <t>lily_7</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>あなたが今まで積み上げてきた全ての選択、全ての戦い……それが、あなたを虚無から守る盾になります。</t>
+          <t>……行ってらっしゃい。そして、必ず戻ってきてください。</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>……行ってらっしゃい。そして、必ず戻ってきてください。</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>narr_7</t>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>react2_survive</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>（リリィは、あなたの額に軽く口づけをする。）</t>
+          <t>c2_survive</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>（リリィは、あなたの額に軽く口づけをする。）</t>
+          <t>……生き残る。必ず</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>……生き残る。必ず</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>lily_7</t>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>react2_meaning</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>……行ってらっしゃい。そして、必ず戻ってきてください。</t>
+          <t>c2_meaning</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>……行ってらっしゃい。そして、必ず戻ってきてください。</t>
+          <t>自身を信じる</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>自身を信じる</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
+          <t>react2_nod</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>c2_nod</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>react2_survive</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>c2_survive</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>……生き残る。必ず</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>……生き残る。必ず</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
+    </row>
+    <row r="56">
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>lily_r4</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ええ。その言葉を信じていますよ。</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ええ。その言葉を信じていますよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>battle_start</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>react2_meaning</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>c2_meaning</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>自身を信じる</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>自身を信じる</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
+    </row>
+    <row r="59">
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>lily_r5</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>……ええ。それがあなたの武器です。</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>……ええ。それがあなたの武器です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>battle_start</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>react2_nod</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>c2_nod</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>react2_survive</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="F58" t="inlineStr">
+    </row>
+    <row r="62">
+      <c r="G62" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>lily_r4</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>ええ。その言葉を信じていますよ。</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>ええ。その言葉を信じていますよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="inlineStr">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>lily_r6</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>……無口ですが、その目は答えを語っていますね。</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>……無口ですが、その目は答えを語っていますね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
         <is>
           <t>battle_start</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>react2_meaning</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>lily_r5</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>……ええ。それがあなたの武器です。</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>……ええ。それがあなたの武器です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>battle_start</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>react2_nod</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>lily_r6</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>……無口ですが、その目は答えを語っていますね。</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>……無口ですが、その目は答えを語っていますね。</t>
-        </is>
-      </c>
-    </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Null_Assassin");             var data = SoundManager.current.GetData("BGM/Battle_Null_Assassin");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Null_Assassin");             }</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>（闘技場の門を潜ると、そこは無音の世界だった。）</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>（闘技場の門を潜ると、そこは無音の世界だった。）</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="D67" t="inlineStr">
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>（観客の声も、風の音も、自分の心臓の鼓動さえも、全てが消え去っている。）</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>（観客の声も、風の音も、自分の心臓の鼓動さえも、全てが消え去っている。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>（中央に立つのは、輪郭すら曖昧な、黒い霧のような人型の影。）</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>（中央に立つのは、輪郭すら曖昧な、黒い霧のような人型の影。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>（それは、こちらを見ているのか、見ていないのかすら分からない。ただ、その存在が放つ『虚無』の圧力が、魂を押し潰そうとしている。）</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>（それは、こちらを見ているのか、見ていないのかすら分からない。ただ、その存在が放つ『虚無』の圧力が、魂を押し潰そうとしている。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Null_Assassin");             var data = SoundManager.current.GetData("BGM/Battle_Null_Assassin");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Null_Assassin");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>narr_8</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>（闘技場の門を潜ると、そこは無音の世界だった。）</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>（闘技場の門を潜ると、そこは無音の世界だった。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>（観客の声も、風の音も、自分の心臓の鼓動さえも、全てが消え去っている。）</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>（観客の声も、風の音も、自分の心臓の鼓動さえも、全てが消え去っている。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>narr_10</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>（中央に立つのは、輪郭すら曖昧な、黒い霧のような人型の影。）</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>（中央に立つのは、輪郭すら曖昧な、黒い霧のような人型の影。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
       <c r="F72" t="inlineStr">
         <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>narr_11</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>（それは、こちらを見ているのか、見ていないのかすら分からない。ただ、その存在が放つ『虚無』の圧力が、魂を押し潰そうとしている。）</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>（それは、こちらを見ているのか、見ていないのかすら分からない。ただ、その存在が放つ『虚無』の圧力が、魂を押し潰そうとしている。）</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_b_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_b_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="D75" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>end</t>
         </is>
